--- a/results/res_monthly.xlsx
+++ b/results/res_monthly.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\deconstructing-transformers\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EFF64592-7C3E-472A-9DF8-2959EBC1DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E450563-CE74-4E66-B70B-9F69DB417B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="840" windowWidth="20844" windowHeight="12312" xr2:uid="{7EBE2DE6-556B-42CB-A5EB-C9DF66D9E993}"/>
+    <workbookView xWindow="372" yWindow="840" windowWidth="20820" windowHeight="12312" xr2:uid="{7EBE2DE6-556B-42CB-A5EB-C9DF66D9E993}"/>
   </bookViews>
   <sheets>
     <sheet name="res_monthly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +78,9 @@
   </si>
   <si>
     <t>Dtest</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -964,15 +978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ECB15E-7B0F-4AA8-AB86-A88BC64EC487}">
-  <dimension ref="A1:I1429"/>
+  <dimension ref="A1:L1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1402</v>
       </c>
@@ -1025,8 +1039,15 @@
         <f>D2-F2</f>
         <v>1.8200000000000022E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <f>INDEX(A2:A475, MATCH(MIN(I2:I475),I2:I475,0))</f>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1403</v>
       </c>
@@ -1054,7 +1075,7 @@
         <v>4.300000000000026E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1404</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>2.5499999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1405</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>2.2100000000000009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1406</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>8.3000000000000018E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1407</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1408</v>
       </c>
@@ -1194,7 +1215,7 @@
         <v>-2.1900000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1409</v>
       </c>
@@ -1222,7 +1243,7 @@
         <v>-1.21E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1410</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>2.1799999999999986E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1411</v>
       </c>
@@ -1278,7 +1299,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1412</v>
       </c>
@@ -1306,7 +1327,7 @@
         <v>-9.199999999999986E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1413</v>
       </c>
@@ -1334,7 +1355,7 @@
         <v>7.4699999999999989E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1414</v>
       </c>
@@ -1362,7 +1383,7 @@
         <v>0.15610000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1415</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>1.4100000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1416</v>
       </c>
